--- a/data-raw/SusitnaEG Ha_post95.xlsx
+++ b/data-raw/SusitnaEG Ha_post95.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E5694-7139-49A6-ABC0-94252DF502B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B85904-9588-41A2-A3FE-DB542E88AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-14055" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="su_har" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="837">
   <si>
     <t>Susitna Area Chinook Harvest</t>
   </si>
@@ -2546,6 +2546,9 @@
   </si>
   <si>
     <t>No harvest per 11/22/22 email from Nick</t>
+  </si>
+  <si>
+    <t>No harvest per 1/10/2023 email from Nick</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2855,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3944,7 +3947,45 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>14</v>
       </c>
